--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK EN Trade/automation_of_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA16F8-D498-4755-882B-EF4228F0F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B62C3-4A96-0640-8439-6B98602772DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>amika</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>revitalash</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>tresor</t>
+  </si>
+  <si>
+    <t>idole</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -445,7 +454,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -453,7 +462,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +470,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,160 +535,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1106,16 +975,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127:A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1144,7 +1013,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1214,7 +1083,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1369,7 +1238,7 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1384,7 +1253,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1404,17 +1273,17 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1424,7 +1293,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1529,7 +1398,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1554,7 +1423,7 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1594,7 +1463,7 @@
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1654,7 +1523,7 @@
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1704,12 +1573,12 @@
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1749,7 +1618,7 @@
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1767,6 +1636,24 @@
       <c r="A130" s="2" t="s">
         <v>105</v>
       </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A60" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -1775,27 +1662,27 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A108 A110:A127 A129 A131:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A127 A129 A131:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK EN Trade/automation_of_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK_EN_Trade/automation_of_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B62C3-4A96-0640-8439-6B98602772DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76B877-4304-EB4C-8864-93A3F4C616AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>amika</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>idole</t>
+  </si>
+  <si>
+    <t>burerry</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,12 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,8 +975,8 @@
   <dimension ref="A1:A134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127:A133"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1009,656 +1006,658 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>79</v>
+      <c r="A70" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>127</v>
+      <c r="A83" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>129</v>
+      <c r="A108" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>49</v>
+      <c r="A111" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A60" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A130">
-      <sortCondition ref="A1:A60"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A134">
+      <sortCondition ref="A1:A134"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A108 A110:A127 A129 A131:A1048576">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK_EN_Trade/automation_of_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E76B877-4304-EB4C-8864-93A3F4C616AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC87360-A9FE-431D-967B-F04A395CDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$156</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>amika</t>
   </si>
@@ -360,9 +360,6 @@
     <t>brand</t>
   </si>
   <si>
-    <t>bvlgari</t>
-  </si>
-  <si>
     <t>thierry mugler</t>
   </si>
   <si>
@@ -439,6 +436,162 @@
   </si>
   <si>
     <t>burerry</t>
+  </si>
+  <si>
+    <t>טסטר</t>
+  </si>
+  <si>
+    <t>אולפלקס</t>
+  </si>
+  <si>
+    <t>אזארו</t>
+  </si>
+  <si>
+    <t>אלי סאאב</t>
+  </si>
+  <si>
+    <t>אסנטריק מולקולה</t>
+  </si>
+  <si>
+    <t>אסקדה</t>
+  </si>
+  <si>
+    <t>בוס</t>
+  </si>
+  <si>
+    <t>הוגו בוס</t>
+  </si>
+  <si>
+    <t>ברברי</t>
+  </si>
+  <si>
+    <t>ג'ימי צ'ו</t>
+  </si>
+  <si>
+    <t>דוידוף</t>
+  </si>
+  <si>
+    <t>דיזל</t>
+  </si>
+  <si>
+    <t>ויקטור אנד רולף</t>
+  </si>
+  <si>
+    <t>לליק</t>
+  </si>
+  <si>
+    <t>לנוין</t>
+  </si>
+  <si>
+    <t>סוספירו קסרג'וף</t>
+  </si>
+  <si>
+    <t>קסרג'וף</t>
+  </si>
+  <si>
+    <t>קואץ'</t>
+  </si>
+  <si>
+    <t>קלין</t>
+  </si>
+  <si>
+    <t>קסרג'וף קאסמורטי</t>
+  </si>
+  <si>
+    <t>קריד</t>
+  </si>
+  <si>
+    <t>רוברטו קוואלי</t>
+  </si>
+  <si>
+    <t>רושאס</t>
+  </si>
+  <si>
+    <t>אלפאפארף </t>
+  </si>
+  <si>
+    <t>אמיקה </t>
+  </si>
+  <si>
+    <t>אמואג'</t>
+  </si>
+  <si>
+    <t>אריאנה גרנדה</t>
+  </si>
+  <si>
+    <t>אריאנה</t>
+  </si>
+  <si>
+    <t>אוון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">באבור </t>
+  </si>
+  <si>
+    <t>בוס הוגו</t>
+  </si>
+  <si>
+    <t>בוס הוגו בוס</t>
+  </si>
+  <si>
+    <t>קלווין </t>
+  </si>
+  <si>
+    <t>קלווין קליין</t>
+  </si>
+  <si>
+    <t>קלרינס </t>
+  </si>
+  <si>
+    <t>דנהיל</t>
+  </si>
+  <si>
+    <t>אלמיס </t>
+  </si>
+  <si>
+    <t>אליזבת ארדן</t>
+  </si>
+  <si>
+    <t>גרלן</t>
+  </si>
+  <si>
+    <t>הוגו</t>
+  </si>
+  <si>
+    <t>ג'וסי קוטור</t>
+  </si>
+  <si>
+    <t>ג'וסי</t>
+  </si>
+  <si>
+    <t>לוריאל פרופשיונל</t>
+  </si>
+  <si>
+    <t>לוריאל</t>
+  </si>
+  <si>
+    <t>לקוסט </t>
+  </si>
+  <si>
+    <t>לנקום</t>
+  </si>
+  <si>
+    <t>ראלף לורן</t>
+  </si>
+  <si>
+    <t>לורן</t>
+  </si>
+  <si>
+    <t>מונט בלאן</t>
+  </si>
+  <si>
+    <t>מונטל </t>
+  </si>
+  <si>
+    <t>מוגלר</t>
+  </si>
+  <si>
+    <t>נוקס </t>
   </si>
 </sst>
 </file>
@@ -449,7 +602,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -457,7 +610,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -465,7 +618,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -473,7 +626,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -972,16 +1125,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1006,17 +1159,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1066,127 +1219,127 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -1196,392 +1349,392 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>127</v>
+      <c r="A70" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>75</v>
+      <c r="A85" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>129</v>
+      <c r="A111" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
@@ -1591,96 +1744,351 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>55</v>
+      <c r="A125" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>131</v>
+      <c r="A126" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A60" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A134">
-      <sortCondition ref="A1:A134"/>
+  <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A186">
+      <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:A108 A110:A127 A129 A131:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  <conditionalFormatting sqref="A1:A107 A128 A109:A126 A130:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A127 A129 A131:A1048576">
+  <conditionalFormatting sqref="A128 A1:A126 A130:A1048576">
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC87360-A9FE-431D-967B-F04A395CDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003B50F-E3CF-45DF-86B3-ECC73AA2EA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>amika</t>
   </si>
@@ -592,6 +592,75 @@
   </si>
   <si>
     <t>נוקס </t>
+  </si>
+  <si>
+    <t>אנדר ארמור</t>
+  </si>
+  <si>
+    <t>davines</t>
+  </si>
+  <si>
+    <t>שיסיידו</t>
+  </si>
+  <si>
+    <t>טיירי מוגלר</t>
+  </si>
+  <si>
+    <t>פרורסו</t>
+  </si>
+  <si>
+    <t>ויקטור</t>
+  </si>
+  <si>
+    <t>מרוקנאויל</t>
+  </si>
+  <si>
+    <t>לאונור גרייל</t>
+  </si>
+  <si>
+    <t>קולגייט</t>
+  </si>
+  <si>
+    <t>אולפלקס </t>
+  </si>
+  <si>
+    <t>קנת' קול</t>
+  </si>
+  <si>
+    <t>קנת קול</t>
+  </si>
+  <si>
+    <t>מונט בלאנק</t>
+  </si>
+  <si>
+    <t>מונטל</t>
+  </si>
+  <si>
+    <t>בושרון</t>
+  </si>
+  <si>
+    <t>keneth</t>
+  </si>
+  <si>
+    <t>roger &amp; gallet</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>l'occ.</t>
+  </si>
+  <si>
+    <t>caudalie</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>viktor&amp;rolf</t>
+  </si>
+  <si>
+    <t>hb</t>
   </si>
 </sst>
 </file>
@@ -698,7 +767,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,11 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A185"/>
+  <dimension ref="A1:A208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,852 +1333,969 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>126</v>
+      <c r="A85" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>39</v>
+      <c r="A91" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A186">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A208">
       <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A107 A128 A109:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128 A1:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003B50F-E3CF-45DF-86B3-ECC73AA2EA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C75550-6067-467C-8DA9-3D75407F44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>amika</t>
   </si>
@@ -661,13 +661,25 @@
   </si>
   <si>
     <t>hb</t>
+  </si>
+  <si>
+    <t>rene furterer</t>
+  </si>
+  <si>
+    <t>l'occitanne</t>
+  </si>
+  <si>
+    <t>marvis</t>
+  </si>
+  <si>
+    <t>davines haircare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +706,14 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -746,11 +766,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,11 +780,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1214,1088 +1268,1117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A208"/>
+  <dimension ref="A1:A212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+    <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+    <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+    <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+    <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+    <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+    <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+    <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+    <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+    <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+    <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+    <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+    <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+    <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+    <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+    <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+    <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+    <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+    <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+    <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+    <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+    <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+    <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+    <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+    <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+    <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+    <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+    <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+    <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+    <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+    <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+    <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+    <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+    <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+    <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+    <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+    <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+    <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+    <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+    <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+    <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+    <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+    <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+    <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+    <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+    <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+    <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+    <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+    <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+    <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+    <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+    <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+    <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+    <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+    <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+    <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+    <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+    <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
+    <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+    <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+    <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+    <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+    <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+    <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+    <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+    <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+    <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
+    <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+    <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
+    <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+    <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
+    <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+    <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A208">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A212">
       <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A107 A128 A109:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128 A1:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A210">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A212">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C75550-6067-467C-8DA9-3D75407F44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F12585-0A9B-4998-AD57-D30AAB3DB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>amika</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>davines haircare</t>
+  </si>
+  <si>
+    <t>kenneth</t>
+  </si>
+  <si>
+    <t>vr</t>
   </si>
 </sst>
 </file>
@@ -766,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,9 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A212"/>
+  <dimension ref="A1:A214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1637,712 +1640,722 @@
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A212">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A214">
       <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
@@ -2359,25 +2372,23 @@
     <cfRule type="duplicateValues" dxfId="12" priority="4"/>
     <cfRule type="duplicateValues" dxfId="11" priority="5"/>
     <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128 A1:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A210">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A212">
+  <conditionalFormatting sqref="A212:A214">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F12585-0A9B-4998-AD57-D30AAB3DB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DCFC45-1D94-48F6-862A-29482D4AC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>amika</t>
   </si>
@@ -75,9 +75,6 @@
     <t>creed</t>
   </si>
   <si>
-    <t>davidoff</t>
-  </si>
-  <si>
     <t>diesel</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>etro</t>
   </si>
   <si>
-    <t>guerlain</t>
-  </si>
-  <si>
     <t>initio</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>christophe robin</t>
   </si>
   <si>
-    <t>davidof</t>
-  </si>
-  <si>
     <t>elemis</t>
   </si>
   <si>
@@ -468,9 +459,6 @@
     <t>ג'ימי צ'ו</t>
   </si>
   <si>
-    <t>דוידוף</t>
-  </si>
-  <si>
     <t>דיזל</t>
   </si>
   <si>
@@ -552,9 +540,6 @@
     <t>אליזבת ארדן</t>
   </si>
   <si>
-    <t>גרלן</t>
-  </si>
-  <si>
     <t>הוגו</t>
   </si>
   <si>
@@ -679,6 +664,24 @@
   </si>
   <si>
     <t>vr</t>
+  </si>
+  <si>
+    <t>l'oreal prof. hair care</t>
+  </si>
+  <si>
+    <t>boucheron100</t>
+  </si>
+  <si>
+    <t>vince</t>
+  </si>
+  <si>
+    <t>michel germain</t>
+  </si>
+  <si>
+    <t>marly</t>
+  </si>
+  <si>
+    <t>comptoir sud pacifique</t>
   </si>
 </sst>
 </file>
@@ -1271,11 +1274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A214"/>
+  <dimension ref="A1:A215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,12 +1288,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1305,27 +1308,27 @@
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1340,17 +1343,17 @@
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1360,1035 +1363,1040 @@
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>36</v>
+      <c r="A92" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>126</v>
+      <c r="A93" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>47</v>
+      <c r="A122" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>201</v>
+      <c r="A125" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A214">
-      <sortCondition ref="A1:A156"/>
+  <autoFilter ref="A1:A153" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A216">
+      <sortCondition ref="A1:A153"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:A107 A128 A109:A126 A130:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+  <conditionalFormatting sqref="A125 A1:A104 A106:A123 A127:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A128 A1:A126 A130:A1048576">
+  <conditionalFormatting sqref="A125 A1:A123 A127:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A210">
+  <conditionalFormatting sqref="A204:A205">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A212:A214">
+  <conditionalFormatting sqref="A207:A215">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DCFC45-1D94-48F6-862A-29482D4AC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C06A3-B364-4A31-906E-66B0EADDAD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>amika</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>comptoir sud pacifique</t>
+  </si>
+  <si>
+    <t>c.k.</t>
+  </si>
+  <si>
+    <t>escentricmolecule</t>
   </si>
 </sst>
 </file>
@@ -1274,11 +1280,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A215"/>
+  <dimension ref="A1:A217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176:XFD176"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,992 +1384,1002 @@
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>123</v>
+      <c r="A92" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>35</v>
+      <c r="A94" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A153" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A216">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A217">
       <sortCondition ref="A1:A153"/>
     </sortState>
   </autoFilter>
@@ -2396,7 +2412,7 @@
   <conditionalFormatting sqref="A204:A205">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A215">
+  <conditionalFormatting sqref="A207:A217">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C06A3-B364-4A31-906E-66B0EADDAD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A535AF89-F8D2-4B77-A701-A68BD491458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>amika</t>
   </si>
@@ -688,6 +688,18 @@
   </si>
   <si>
     <t>escentricmolecule</t>
+  </si>
+  <si>
+    <t>juliette</t>
+  </si>
+  <si>
+    <t>thierry</t>
+  </si>
+  <si>
+    <t>bioderma</t>
+  </si>
+  <si>
+    <t>l'occittane</t>
   </si>
 </sst>
 </file>
@@ -803,7 +815,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1280,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A217"/>
+  <dimension ref="A1:A221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,1070 +1371,1093 @@
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>123</v>
+      <c r="A94" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>35</v>
+      <c r="A96" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A153" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A217">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A221">
       <sortCondition ref="A1:A153"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 A1:A104 A106:A123 A127:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125 A1:A123 A127:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204:A205">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:A221">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A217">
+  <conditionalFormatting sqref="A219">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python for analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A535AF89-F8D2-4B77-A701-A68BD491458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38221CEC-BC0C-48DC-B98F-39ECAD86594A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>amika</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>l'occittane</t>
+  </si>
+  <si>
+    <t>arden</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A221"/>
+  <dimension ref="A1:A222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,1083 +1349,1088 @@
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A153" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A221">
-      <sortCondition ref="A1:A153"/>
+  <autoFilter ref="A1:A154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A222">
+      <sortCondition ref="A1:A154"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2431,7 +2439,7 @@
     <cfRule type="duplicateValues" dxfId="18" priority="7"/>
     <cfRule type="duplicateValues" dxfId="17" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
+  <conditionalFormatting sqref="A106">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
     <cfRule type="duplicateValues" dxfId="15" priority="10"/>
     <cfRule type="duplicateValues" dxfId="14" priority="11"/>
@@ -2439,7 +2447,7 @@
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125 A1:A104 A106:A123 A127:A1048576">
+  <conditionalFormatting sqref="A126 A1:A105 A107:A124 A128:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="15"/>
     <cfRule type="duplicateValues" dxfId="9" priority="16"/>
     <cfRule type="duplicateValues" dxfId="8" priority="17"/>
@@ -2448,16 +2456,16 @@
     <cfRule type="duplicateValues" dxfId="5" priority="20"/>
     <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A125 A1:A123 A127:A1048576">
+  <conditionalFormatting sqref="A126 A1:A124 A128:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A204:A205">
+  <conditionalFormatting sqref="A205:A206">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A221">
+  <conditionalFormatting sqref="A208:A222">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+  <conditionalFormatting sqref="A220">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38221CEC-BC0C-48DC-B98F-39ECAD86594A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C936B5A6-DAB2-4BB8-8D10-87E37F137FB6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>amika</t>
   </si>
@@ -703,6 +703,18 @@
   </si>
   <si>
     <t>arden</t>
+  </si>
+  <si>
+    <t>oscar de la renta</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>roja parfums</t>
+  </si>
+  <si>
+    <t>roja</t>
   </si>
 </sst>
 </file>
@@ -1042,6 +1054,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1305,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A222"/>
+  <dimension ref="A1:A226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,527 +1929,547 @@
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A222">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A226">
       <sortCondition ref="A1:A154"/>
     </sortState>
   </autoFilter>
@@ -2462,7 +2502,7 @@
   <conditionalFormatting sqref="A205:A206">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208:A222">
+  <conditionalFormatting sqref="A208:A226">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C936B5A6-DAB2-4BB8-8D10-87E37F137FB6}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C10FDA-7D93-413A-BB6B-E9512348140A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>amika</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>roja</t>
+  </si>
+  <si>
+    <t>lancôme</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1065,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1325,11 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A226"/>
+  <dimension ref="A1:A227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,703 +1781,708 @@
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A154" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A226">
-      <sortCondition ref="A1:A154"/>
+  <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A227">
+      <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2479,7 +2491,7 @@
     <cfRule type="duplicateValues" dxfId="18" priority="7"/>
     <cfRule type="duplicateValues" dxfId="17" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A107">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
     <cfRule type="duplicateValues" dxfId="15" priority="10"/>
     <cfRule type="duplicateValues" dxfId="14" priority="11"/>
@@ -2487,7 +2499,7 @@
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126 A1:A105 A107:A124 A128:A1048576">
+  <conditionalFormatting sqref="A127 A108:A125 A129:A1048576 A1:A106">
     <cfRule type="duplicateValues" dxfId="10" priority="15"/>
     <cfRule type="duplicateValues" dxfId="9" priority="16"/>
     <cfRule type="duplicateValues" dxfId="8" priority="17"/>
@@ -2496,16 +2508,16 @@
     <cfRule type="duplicateValues" dxfId="5" priority="20"/>
     <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126 A1:A124 A128:A1048576">
+  <conditionalFormatting sqref="A127 A129:A1048576 A1:A125">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205:A206">
+  <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A208:A226">
+  <conditionalFormatting sqref="A209:A227">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A220">
+  <conditionalFormatting sqref="A221">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C10FDA-7D93-413A-BB6B-E9512348140A}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C2AD01-95E5-462E-BEF8-99AD8344E8A7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>amika</t>
   </si>
@@ -718,6 +718,42 @@
   </si>
   <si>
     <t>lancôme</t>
+  </si>
+  <si>
+    <t>ג'ימי</t>
+  </si>
+  <si>
+    <t>לג'נד</t>
+  </si>
+  <si>
+    <t>מונט</t>
+  </si>
+  <si>
+    <t>טיירי</t>
+  </si>
+  <si>
+    <t>מונבלאן</t>
+  </si>
+  <si>
+    <t>ג'ולייט</t>
+  </si>
+  <si>
+    <t>איידול</t>
+  </si>
+  <si>
+    <t>שפתון</t>
+  </si>
+  <si>
+    <t>קלווין</t>
+  </si>
+  <si>
+    <t>קנט קול</t>
+  </si>
+  <si>
+    <t>סריג'וף</t>
+  </si>
+  <si>
+    <t>אלי</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1105,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1332,11 +1376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A227"/>
+  <dimension ref="A1:A239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>210</v>
       </c>
@@ -2276,212 +2320,272 @@
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A227">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A232">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2499,22 +2603,22 @@
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127 A108:A125 A129:A1048576 A1:A106">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
+  <conditionalFormatting sqref="A127 A1:A125 A129:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127 A129:A1048576 A1:A125">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="A127 A108:A125 A1:A106 A129:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A227">
+  <conditionalFormatting sqref="A209:A239">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C2AD01-95E5-462E-BEF8-99AD8344E8A7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87C8328-C0E6-4A9F-9892-CD7DC90065A8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>amika</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>אלי</t>
+  </si>
+  <si>
+    <t>alien</t>
   </si>
 </sst>
 </file>
@@ -1113,6 +1116,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1376,11 +1383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A239"/>
+  <dimension ref="A1:A240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,1192 +1407,1197 @@
     </row>
     <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A232">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A240">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2618,7 +2630,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A239">
+  <conditionalFormatting sqref="A209:A240">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK_EN_Trade/automation_of_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{933E450C-3F48-4A69-A0ED-2AADC0D553E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87C8328-C0E6-4A9F-9892-CD7DC90065A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46D97B-17A1-2D41-8E59-72B225BD8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$155</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>amika</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>alien</t>
+  </si>
+  <si>
+    <t>trish mcevoy</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -775,7 +778,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -783,7 +786,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -791,7 +794,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -799,7 +802,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1383,16 +1386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A240"/>
+  <dimension ref="A1:A241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1400,82 +1403,82 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1485,1152 +1488,1157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A240">
-      <sortCondition ref="A1:A155"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A241">
+      <sortCondition ref="A1:A241"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A1:A125 A129:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A108:A125 A1:A106 A129:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A240">
+  <conditionalFormatting sqref="A209:A241">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK_EN_Trade/automation_of_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46D97B-17A1-2D41-8E59-72B225BD8E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>amika</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>trish mcevoy</t>
+  </si>
+  <si>
+    <t>billie eilish</t>
   </si>
 </sst>
 </file>
@@ -1386,11 +1389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A241"/>
+  <dimension ref="A1:A242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,1148 +1468,1153 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A241">
-      <sortCondition ref="A1:A241"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A242">
+      <sortCondition ref="A1:A242"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2638,7 +2646,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A241">
+  <conditionalFormatting sqref="A209:A242">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paskag/Desktop/WORK_EN_Trade/automation_of_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6571E4-BBF4-4C0A-99C8-D8B53FD233C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>amika</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>billie eilish</t>
+  </si>
+  <si>
+    <t>מנסרה</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -781,7 +784,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -789,7 +792,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -797,7 +800,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -805,7 +808,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1389,16 +1392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A242"/>
+  <dimension ref="A1:A243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C236" sqref="C236"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1406,82 +1409,82 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -1491,1162 +1494,1167 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+    <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+    <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+    <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+    <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+    <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A242">
-      <sortCondition ref="A1:A242"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243">
+      <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A1:A125 A129:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A108:A125 A1:A106 A129:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A242">
+  <conditionalFormatting sqref="A209:A243">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6571E4-BBF4-4C0A-99C8-D8B53FD233C8}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8050A22A-5782-4898-B734-8281859B2420}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>amika</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>מנסרה</t>
+  </si>
+  <si>
+    <t>ralph's</t>
+  </si>
+  <si>
+    <t>lc</t>
   </si>
 </sst>
 </file>
@@ -1129,6 +1135,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1392,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A243"/>
+  <dimension ref="A1:A245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,747 +1895,757 @@
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A245">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2654,7 +2678,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A243">
+  <conditionalFormatting sqref="A209:A245">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8050A22A-5782-4898-B734-8281859B2420}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C8B09B-2024-40E3-A486-4BAE40C7D646}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>amika</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>lc</t>
+  </si>
+  <si>
+    <t>gisada</t>
+  </si>
+  <si>
+    <t>גיסאדה</t>
   </si>
 </sst>
 </file>
@@ -1143,6 +1149,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1406,11 +1416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A245"/>
+  <dimension ref="A1:A247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,947 +1715,957 @@
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A245">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A247">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2678,7 +2698,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A245">
+  <conditionalFormatting sqref="A209:A247">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6C8B09B-2024-40E3-A486-4BAE40C7D646}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFDAF1E-07CF-42B6-93FA-3E3A588C8AA9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>amika</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>גיסאדה</t>
+  </si>
+  <si>
+    <t>lancome cosmetica</t>
+  </si>
+  <si>
+    <t>neostrata</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1159,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1416,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A247"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,787 +1895,797 @@
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A247">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A249">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2698,7 +2718,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A247">
+  <conditionalFormatting sqref="A209:A249">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFDAF1E-07CF-42B6-93FA-3E3A588C8AA9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5302582-BF0A-4C0F-B04C-1AB6F0E1F486}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$156</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>amika</t>
   </si>
@@ -784,6 +784,48 @@
   </si>
   <si>
     <t>neostrata</t>
+  </si>
+  <si>
+    <t>dolce</t>
+  </si>
+  <si>
+    <t>d&amp;g</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>dolce gabbana</t>
+  </si>
+  <si>
+    <t>dolce &amp; gabbana</t>
+  </si>
+  <si>
+    <t>dolce&amp;gabbana</t>
+  </si>
+  <si>
+    <t>gabbana</t>
+  </si>
+  <si>
+    <t>dolce gabana</t>
+  </si>
+  <si>
+    <t>dolce &amp; gabana</t>
+  </si>
+  <si>
+    <t>dolce&amp;gabana</t>
+  </si>
+  <si>
+    <t>gabana</t>
+  </si>
+  <si>
+    <t>דולצ'ה וגבאנה</t>
+  </si>
+  <si>
+    <t>דולצה וגבאנה</t>
+  </si>
+  <si>
+    <t>mcm</t>
   </si>
 </sst>
 </file>
@@ -1135,6 +1177,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1160,6 +1206,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1426,11 +1476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,1068 +1675,1138 @@
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>123</v>
+      <c r="A103" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>117</v>
+      <c r="A114" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>231</v>
+        <v>141</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A249">
-      <sortCondition ref="A1:A155"/>
+  <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A263">
+      <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2715,13 +2835,13 @@
     <cfRule type="duplicateValues" dxfId="4" priority="20"/>
     <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206:A207">
+  <conditionalFormatting sqref="A207:A208">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A249">
+  <conditionalFormatting sqref="A210:A263">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+  <conditionalFormatting sqref="A222">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5302582-BF0A-4C0F-B04C-1AB6F0E1F486}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34356361-C517-4E77-9321-03111F6487AE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>amika</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>mcm</t>
+  </si>
+  <si>
+    <t>קליניק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clinique </t>
   </si>
 </sst>
 </file>
@@ -1181,6 +1187,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1476,11 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A263"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,1157 +1665,1167 @@
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A263">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A265">
       <sortCondition ref="A1:A156"/>
     </sortState>
   </autoFilter>
@@ -2838,7 +2858,7 @@
   <conditionalFormatting sqref="A207:A208">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A210:A263">
+  <conditionalFormatting sqref="A210:A265">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34356361-C517-4E77-9321-03111F6487AE}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84FBB71-6938-47F3-B27A-2F55FCA59C97}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$155</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -831,7 +831,7 @@
     <t>קליניק</t>
   </si>
   <si>
-    <t xml:space="preserve">clinique </t>
+    <t>clinique</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1188,6 +1198,18 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1489,8 +1511,8 @@
   <dimension ref="A1:A265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,12 +2131,12 @@
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2824,45 +2846,46 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A265">
-      <sortCondition ref="A1:A156"/>
+      <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127 A1:A125 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  <conditionalFormatting sqref="A126 A1:A124 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127 A108:A125 A1:A106 A129:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
+  <conditionalFormatting sqref="A126 A107:A124 A1:A105 A128:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A207:A208">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A206:A207">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A210:A265">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A209:A265">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84FBB71-6938-47F3-B27A-2F55FCA59C97}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEED48BE-D448-46F8-A862-3AEDD3E23FAC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>amika</t>
   </si>
@@ -832,6 +832,12 @@
   </si>
   <si>
     <t>clinique</t>
+  </si>
+  <si>
+    <t>revlon hair care</t>
+  </si>
+  <si>
+    <t>l occitane</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1219,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1508,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A265"/>
+  <dimension ref="A1:A267"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,862 +2006,872 @@
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A265">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A267">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2881,7 +2905,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A265">
+  <conditionalFormatting sqref="A209:A267">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEED48BE-D448-46F8-A862-3AEDD3E23FAC}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C281D2-E17F-450C-9DC0-82DD617943E2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>amika</t>
   </si>
@@ -838,6 +838,18 @@
   </si>
   <si>
     <t>l occitane</t>
+  </si>
+  <si>
+    <t>montale paris</t>
+  </si>
+  <si>
+    <t>lacoste fragrances</t>
+  </si>
+  <si>
+    <t>kate moss</t>
+  </si>
+  <si>
+    <t>anastasia</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1239,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1522,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A267"/>
+  <dimension ref="A1:A271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,1355 +1577,1375 @@
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>123</v>
+      <c r="A116" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>35</v>
+      <c r="A119" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>37</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A267">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A271">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126 A1:A124 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126 A107:A124 A1:A105 A128:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206:A207">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A267">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A209:A271">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C281D2-E17F-450C-9DC0-82DD617943E2}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C93D450-800B-44D2-A64E-CBC3F2FAD239}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>amika</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>anastasia</t>
+  </si>
+  <si>
+    <t>jch</t>
   </si>
 </sst>
 </file>
@@ -1243,6 +1246,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1538,11 +1545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A271"/>
+  <dimension ref="A1:A272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,977 +1944,982 @@
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A271">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A272">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2941,7 +2953,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A271">
+  <conditionalFormatting sqref="A209:A272">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f096e3689dd083c9/Python for analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{2D594EEA-6E0E-3045-9235-2F06DE0FC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C93D450-800B-44D2-A64E-CBC3F2FAD239}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656F18C-A551-4045-9256-9714CC027217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>amika</t>
   </si>
@@ -853,6 +853,12 @@
   </si>
   <si>
     <t>jch</t>
+  </si>
+  <si>
+    <t>elie</t>
+  </si>
+  <si>
+    <t>biotherm</t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1256,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person19.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -1545,11 +1555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A272"/>
+  <dimension ref="A1:A274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,1287 +1649,1297 @@
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>123</v>
+      <c r="A120" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>220</v>
+      <c r="A122" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>88</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>222</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>235</v>
+        <v>146</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A272">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A274">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2953,7 +2973,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A272">
+  <conditionalFormatting sqref="A209:A274">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3656F18C-A551-4045-9256-9714CC027217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E84016A-087F-47F6-81BE-3585353E0EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>amika</t>
   </si>
@@ -859,6 +859,9 @@
   </si>
   <si>
     <t>biotherm</t>
+  </si>
+  <si>
+    <t>floris</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,16 +963,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,20 +1555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A274"/>
+  <dimension ref="A1:A275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A268:A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1919,1027 +1919,1032 @@
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A274">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A275">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2973,7 +2978,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A274">
+  <conditionalFormatting sqref="A209:A275">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">

--- a/restriction_list.xlsx
+++ b/restriction_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Python for analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E84016A-087F-47F6-81BE-3585353E0EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56E7EB-AAAC-474C-97B0-2635CF1DDC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>amika</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>floris</t>
+  </si>
+  <si>
+    <t>dolce&amp;ga</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,8 +970,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A275"/>
+  <dimension ref="A1:A276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A268:A269"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,1132 +1825,1137 @@
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>272</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>274</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>269</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A155" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A275">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A276">
       <sortCondition ref="A1:A155"/>
     </sortState>
   </autoFilter>
@@ -2978,7 +2989,7 @@
   <conditionalFormatting sqref="A206:A207">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A275">
+  <conditionalFormatting sqref="A209:A276">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
